--- a/Statystyki_2018/Template/aopp.xlsx
+++ b/Statystyki_2018/Template/aopp.xlsx
@@ -1002,7 +1002,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1241,7 +1241,10 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.08"/>
+  </cols>
   <sheetData>
     <row r="2" s="10" customFormat="true" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
